--- a/doc/13_外部設計/02_外部設計書グループ画面（一覧）（新規登録）.xlsx
+++ b/doc/13_外部設計/02_外部設計書グループ画面（一覧）（新規登録）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1F5FCF8-6995-4E50-806E-A337A3DB3E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC727CFB-5CA1-4655-A35A-F3C867983DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="グループ画面（一覧）" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -530,6 +530,45 @@
     <t>submit</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>5.アイコンボタンの押下時</t>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>グループのアイコンを変更する</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>account_tableに登録</t>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アイコン設定</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -914,6 +953,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -967,26 +1026,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1296,7 +1335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
@@ -1306,198 +1345,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="27" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="28"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="29" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29" t="s">
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29" t="s">
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="30" t="s">
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="32"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="40"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="29" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29" t="s">
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="33">
+      <c r="X3" s="37"/>
+      <c r="Y3" s="41">
         <v>45453</v>
       </c>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="34" t="s">
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="36"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="37" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="20"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="28"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -3156,19 +3195,19 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="44"/>
-      <c r="V46" s="44"/>
-      <c r="W46" s="44"/>
-      <c r="X46" s="44"/>
-      <c r="Y46" s="44"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8"/>
       <c r="AB46" s="8"/>
@@ -3199,19 +3238,19 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="44"/>
-      <c r="X47" s="44"/>
-      <c r="Y47" s="44"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
@@ -3242,19 +3281,19 @@
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="44"/>
-      <c r="X48" s="44"/>
-      <c r="Y48" s="44"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
       <c r="Z48" s="8"/>
       <c r="AA48" s="8"/>
       <c r="AB48" s="8"/>
@@ -3284,19 +3323,19 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="44"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8"/>
       <c r="AB49" s="8"/>
@@ -3326,19 +3365,19 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="44"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
       <c r="AB50" s="8"/>
@@ -3368,19 +3407,19 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="44"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
       <c r="AB51" s="8"/>
@@ -4467,33 +4506,33 @@
       <c r="L80" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M80" s="40"/>
-      <c r="N80" s="42"/>
-      <c r="O80" s="39"/>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="40"/>
-      <c r="R80" s="42"/>
-      <c r="S80" s="39"/>
-      <c r="T80" s="42"/>
-      <c r="U80" s="39"/>
-      <c r="V80" s="42"/>
-      <c r="W80" s="39"/>
-      <c r="X80" s="40"/>
-      <c r="Y80" s="40"/>
-      <c r="Z80" s="42"/>
-      <c r="AA80" s="39"/>
-      <c r="AB80" s="40"/>
-      <c r="AC80" s="42"/>
-      <c r="AD80" s="39"/>
-      <c r="AE80" s="40"/>
-      <c r="AF80" s="40"/>
-      <c r="AG80" s="40"/>
-      <c r="AH80" s="40"/>
-      <c r="AI80" s="40"/>
-      <c r="AJ80" s="40"/>
-      <c r="AK80" s="40"/>
-      <c r="AL80" s="40"/>
-      <c r="AM80" s="43"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="23"/>
+      <c r="S80" s="20"/>
+      <c r="T80" s="23"/>
+      <c r="U80" s="20"/>
+      <c r="V80" s="23"/>
+      <c r="W80" s="20"/>
+      <c r="X80" s="21"/>
+      <c r="Y80" s="21"/>
+      <c r="Z80" s="23"/>
+      <c r="AA80" s="20"/>
+      <c r="AB80" s="21"/>
+      <c r="AC80" s="23"/>
+      <c r="AD80" s="20"/>
+      <c r="AE80" s="21"/>
+      <c r="AF80" s="21"/>
+      <c r="AG80" s="21"/>
+      <c r="AH80" s="21"/>
+      <c r="AI80" s="21"/>
+      <c r="AJ80" s="21"/>
+      <c r="AK80" s="21"/>
+      <c r="AL80" s="21"/>
+      <c r="AM80" s="24"/>
       <c r="AN80" s="7"/>
     </row>
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4517,33 +4556,33 @@
       <c r="L81" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M81" s="40"/>
-      <c r="N81" s="42"/>
-      <c r="O81" s="39"/>
-      <c r="P81" s="40"/>
-      <c r="Q81" s="40"/>
-      <c r="R81" s="42"/>
-      <c r="S81" s="39"/>
-      <c r="T81" s="42"/>
-      <c r="U81" s="39"/>
-      <c r="V81" s="42"/>
-      <c r="W81" s="39"/>
-      <c r="X81" s="40"/>
-      <c r="Y81" s="40"/>
-      <c r="Z81" s="42"/>
-      <c r="AA81" s="39"/>
-      <c r="AB81" s="40"/>
-      <c r="AC81" s="42"/>
-      <c r="AD81" s="39"/>
-      <c r="AE81" s="40"/>
-      <c r="AF81" s="40"/>
-      <c r="AG81" s="40"/>
-      <c r="AH81" s="40"/>
-      <c r="AI81" s="40"/>
-      <c r="AJ81" s="40"/>
-      <c r="AK81" s="40"/>
-      <c r="AL81" s="40"/>
-      <c r="AM81" s="43"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="23"/>
+      <c r="S81" s="20"/>
+      <c r="T81" s="23"/>
+      <c r="U81" s="20"/>
+      <c r="V81" s="23"/>
+      <c r="W81" s="20"/>
+      <c r="X81" s="21"/>
+      <c r="Y81" s="21"/>
+      <c r="Z81" s="23"/>
+      <c r="AA81" s="20"/>
+      <c r="AB81" s="21"/>
+      <c r="AC81" s="23"/>
+      <c r="AD81" s="20"/>
+      <c r="AE81" s="21"/>
+      <c r="AF81" s="21"/>
+      <c r="AG81" s="21"/>
+      <c r="AH81" s="21"/>
+      <c r="AI81" s="21"/>
+      <c r="AJ81" s="21"/>
+      <c r="AK81" s="21"/>
+      <c r="AL81" s="21"/>
+      <c r="AM81" s="24"/>
       <c r="AN81" s="7"/>
     </row>
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4567,12 +4606,12 @@
       <c r="L82" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M82" s="40"/>
-      <c r="N82" s="42"/>
-      <c r="O82" s="39"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="40"/>
-      <c r="R82" s="42"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="23"/>
       <c r="S82" s="14"/>
       <c r="T82" s="17"/>
       <c r="U82" s="14"/>
@@ -4617,12 +4656,12 @@
       <c r="L83" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M83" s="40"/>
-      <c r="N83" s="42"/>
-      <c r="O83" s="39"/>
-      <c r="P83" s="40"/>
-      <c r="Q83" s="40"/>
-      <c r="R83" s="42"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="23"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="23"/>
       <c r="S83" s="14"/>
       <c r="T83" s="17"/>
       <c r="U83" s="14"/>
@@ -4669,10 +4708,10 @@
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
-      <c r="O84" s="39"/>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="40"/>
-      <c r="R84" s="42"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="23"/>
       <c r="S84" s="14"/>
       <c r="T84" s="17"/>
       <c r="U84" s="14"/>
@@ -4699,30 +4738,30 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="12"/>
-      <c r="C85" s="38">
+      <c r="C85" s="19">
         <v>2</v>
       </c>
-      <c r="D85" s="39" t="s">
+      <c r="D85" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="39" t="s">
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I85" s="41"/>
-      <c r="J85" s="40"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="39" t="s">
+      <c r="I85" s="22"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="20" t="s">
         <v>32</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
-      <c r="O85" s="39"/>
-      <c r="P85" s="40"/>
-      <c r="Q85" s="40"/>
-      <c r="R85" s="42"/>
+      <c r="O85" s="20"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="23"/>
       <c r="S85" s="14"/>
       <c r="T85" s="17"/>
       <c r="U85" s="14"/>
@@ -4769,35 +4808,35 @@
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
-      <c r="O86" s="39" t="s">
+      <c r="O86" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="P86" s="40"/>
-      <c r="Q86" s="40"/>
-      <c r="R86" s="42"/>
-      <c r="S86" s="39"/>
-      <c r="T86" s="42"/>
-      <c r="U86" s="39"/>
-      <c r="V86" s="42"/>
-      <c r="W86" s="39"/>
-      <c r="X86" s="40"/>
-      <c r="Y86" s="40"/>
-      <c r="Z86" s="42"/>
-      <c r="AA86" s="39"/>
-      <c r="AB86" s="40"/>
-      <c r="AC86" s="42"/>
-      <c r="AD86" s="39" t="s">
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="23"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="23"/>
+      <c r="U86" s="20"/>
+      <c r="V86" s="23"/>
+      <c r="W86" s="20"/>
+      <c r="X86" s="21"/>
+      <c r="Y86" s="21"/>
+      <c r="Z86" s="23"/>
+      <c r="AA86" s="20"/>
+      <c r="AB86" s="21"/>
+      <c r="AC86" s="23"/>
+      <c r="AD86" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AE86" s="40"/>
-      <c r="AF86" s="40"/>
-      <c r="AG86" s="40"/>
-      <c r="AH86" s="40"/>
-      <c r="AI86" s="40"/>
-      <c r="AJ86" s="40"/>
-      <c r="AK86" s="40"/>
-      <c r="AL86" s="40"/>
-      <c r="AM86" s="43"/>
+      <c r="AE86" s="21"/>
+      <c r="AF86" s="21"/>
+      <c r="AG86" s="21"/>
+      <c r="AH86" s="21"/>
+      <c r="AI86" s="21"/>
+      <c r="AJ86" s="21"/>
+      <c r="AK86" s="21"/>
+      <c r="AL86" s="21"/>
+      <c r="AM86" s="24"/>
       <c r="AN86" s="7"/>
     </row>
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5712,6 +5751,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -5728,7 +5768,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -5743,8 +5782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEFEF5-8E3F-4C3C-A1C9-66A47760E5A5}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5753,198 +5792,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="27" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="28"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="29" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29" t="s">
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29" t="s">
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="30" t="s">
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="32"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="40"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="29" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29" t="s">
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="33">
+      <c r="X3" s="37"/>
+      <c r="Y3" s="41">
         <v>45453</v>
       </c>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="34" t="s">
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="36"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="37" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="20"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="28"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -7645,19 +7684,19 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="44"/>
-      <c r="X47" s="44"/>
-      <c r="Y47" s="44"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
@@ -7688,19 +7727,19 @@
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="44"/>
-      <c r="X48" s="44"/>
-      <c r="Y48" s="44"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
       <c r="Z48" s="8"/>
       <c r="AA48" s="8"/>
       <c r="AB48" s="8"/>
@@ -7730,19 +7769,19 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="44"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8"/>
       <c r="AB49" s="8"/>
@@ -7772,19 +7811,19 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="44"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
       <c r="AB50" s="8"/>
@@ -7814,19 +7853,19 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="44"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
       <c r="AB51" s="8"/>
@@ -7856,19 +7895,19 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="44"/>
-      <c r="U52" s="44"/>
-      <c r="V52" s="44"/>
-      <c r="W52" s="44"/>
-      <c r="X52" s="44"/>
-      <c r="Y52" s="44"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="25"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="25"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="25"/>
       <c r="Z52" s="8"/>
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
@@ -8296,6 +8335,9 @@
     <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
+      <c r="D63" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -8336,6 +8378,9 @@
     <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
+      <c r="D64" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -8376,6 +8421,9 @@
     <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
+      <c r="D65" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -9030,8 +9078,8 @@
       <c r="L80" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M80" s="40"/>
-      <c r="N80" s="42"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="23"/>
       <c r="O80" s="14"/>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
@@ -9080,8 +9128,8 @@
       <c r="L81" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M81" s="40"/>
-      <c r="N81" s="42"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="23"/>
       <c r="O81" s="14"/>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
@@ -9130,8 +9178,8 @@
       <c r="L82" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M82" s="40"/>
-      <c r="N82" s="42"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="23"/>
       <c r="O82" s="14"/>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
@@ -9180,8 +9228,8 @@
       <c r="L83" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M83" s="40"/>
-      <c r="N83" s="42"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="23"/>
       <c r="O83" s="14"/>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
@@ -9262,22 +9310,22 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="12"/>
-      <c r="C85" s="38">
+      <c r="C85" s="19">
         <v>2</v>
       </c>
-      <c r="D85" s="39" t="s">
+      <c r="D85" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="39" t="s">
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I85" s="41"/>
-      <c r="J85" s="40"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="39" t="s">
+      <c r="I85" s="22"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="20" t="s">
         <v>32</v>
       </c>
       <c r="M85" s="15"/>
@@ -9332,35 +9380,35 @@
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
-      <c r="O86" s="39" t="s">
+      <c r="O86" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="P86" s="40"/>
-      <c r="Q86" s="40"/>
-      <c r="R86" s="42"/>
-      <c r="S86" s="39"/>
-      <c r="T86" s="42"/>
-      <c r="U86" s="39"/>
-      <c r="V86" s="42"/>
-      <c r="W86" s="39"/>
-      <c r="X86" s="40"/>
-      <c r="Y86" s="40"/>
-      <c r="Z86" s="42"/>
-      <c r="AA86" s="39"/>
-      <c r="AB86" s="40"/>
-      <c r="AC86" s="42"/>
-      <c r="AD86" s="39" t="s">
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="23"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="23"/>
+      <c r="U86" s="20"/>
+      <c r="V86" s="23"/>
+      <c r="W86" s="20"/>
+      <c r="X86" s="21"/>
+      <c r="Y86" s="21"/>
+      <c r="Z86" s="23"/>
+      <c r="AA86" s="20"/>
+      <c r="AB86" s="21"/>
+      <c r="AC86" s="23"/>
+      <c r="AD86" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AE86" s="40"/>
-      <c r="AF86" s="40"/>
-      <c r="AG86" s="40"/>
-      <c r="AH86" s="40"/>
-      <c r="AI86" s="40"/>
-      <c r="AJ86" s="40"/>
-      <c r="AK86" s="40"/>
-      <c r="AL86" s="40"/>
-      <c r="AM86" s="43"/>
+      <c r="AE86" s="21"/>
+      <c r="AF86" s="21"/>
+      <c r="AG86" s="21"/>
+      <c r="AH86" s="21"/>
+      <c r="AI86" s="21"/>
+      <c r="AJ86" s="21"/>
+      <c r="AK86" s="21"/>
+      <c r="AL86" s="21"/>
+      <c r="AM86" s="24"/>
       <c r="AN86" s="7"/>
     </row>
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9474,16 +9522,24 @@
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
+      <c r="C89" s="13">
+        <v>6</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="14"/>
+      <c r="H89" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="I89" s="16"/>
       <c r="J89" s="15"/>
       <c r="K89" s="17"/>
-      <c r="L89" s="14"/>
+      <c r="L89" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="M89" s="15"/>
       <c r="N89" s="17"/>
       <c r="O89" s="14"/>
@@ -10397,11 +10453,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -10414,6 +10465,11 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
